--- a/lab4/control_store.xlsx
+++ b/lab4/control_store.xlsx
@@ -1073,7 +1073,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomLeft" activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2139,7 +2139,7 @@
         <v>27</v>
       </c>
       <c r="AP7" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ7" s="13" t="s">
         <v>27</v>
@@ -2148,7 +2148,7 @@
         <v>27</v>
       </c>
       <c r="AS7" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT7" s="14" t="s">
         <v>27</v>
@@ -2771,7 +2771,7 @@
         <v>27</v>
       </c>
       <c r="AP11" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ11" s="13" t="s">
         <v>27</v>
@@ -2780,7 +2780,7 @@
         <v>27</v>
       </c>
       <c r="AS11" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT11" s="14" t="s">
         <v>27</v>
@@ -3403,7 +3403,7 @@
         <v>27</v>
       </c>
       <c r="AP15" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ15" s="13" t="s">
         <v>27</v>
@@ -3412,7 +3412,7 @@
         <v>27</v>
       </c>
       <c r="AS15" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT15" s="14" t="s">
         <v>27</v>
@@ -5615,7 +5615,7 @@
         <v>27</v>
       </c>
       <c r="AP29" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ29" s="13" t="s">
         <v>27</v>
@@ -5624,7 +5624,7 @@
         <v>27</v>
       </c>
       <c r="AS29" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT29" s="14" t="s">
         <v>27</v>
@@ -6247,7 +6247,7 @@
         <v>27</v>
       </c>
       <c r="AP33" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ33" s="13" t="s">
         <v>27</v>
@@ -6256,7 +6256,7 @@
         <v>27</v>
       </c>
       <c r="AS33" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT33" s="14" t="s">
         <v>27</v>
